--- a/QA_Course1.xlsx
+++ b/QA_Course1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="6" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Q100</t>
   </si>
   <si>
-    <t>Category 2</t>
-  </si>
-  <si>
     <t>Category 3</t>
   </si>
   <si>
@@ -115,15 +112,9 @@
 e) the environment where the selected medium is to be installed</t>
   </si>
   <si>
-    <t>Cat2 Q500</t>
-  </si>
-  <si>
     <t>Cat 1 Q400</t>
   </si>
   <si>
-    <t>Cat2 Q400</t>
-  </si>
-  <si>
     <t>Cat3 Q500</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
   </si>
   <si>
     <t>Cat12 Q200</t>
-  </si>
-  <si>
-    <t>Cat2 A500</t>
   </si>
   <si>
     <t>c) the distance the selected medium can successfully carry a signal
@@ -314,9 +302,6 @@
     <t>Cat 1 A400</t>
   </si>
   <si>
-    <t>Cat2 A400</t>
-  </si>
-  <si>
     <t>Cat 3 A400</t>
   </si>
   <si>
@@ -471,6 +456,21 @@
   </si>
   <si>
     <t>Cat12 A200</t>
+  </si>
+  <si>
+    <t>Historical Events</t>
+  </si>
+  <si>
+    <t>Where was 9/11 Taken Place?</t>
+  </si>
+  <si>
+    <t>When was Indepence Day?</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>July 4th</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
@@ -955,22 +955,22 @@
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -995,22 +995,22 @@
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -1035,22 +1035,22 @@
     </row>
     <row r="8" spans="1:6" ht="51" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -1075,22 +1075,22 @@
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -1115,27 +1115,27 @@
     </row>
     <row r="12" spans="1:6" ht="51" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1145,142 +1145,142 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="51" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
@@ -1305,22 +1305,22 @@
     </row>
     <row r="23" spans="1:6" ht="51" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
@@ -1345,22 +1345,22 @@
     </row>
     <row r="25" spans="1:6" ht="51" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1389,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f>Questions!B2</f>
-        <v>Category 2</v>
+        <v>Historical Events</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>Questions!C2</f>
@@ -1445,22 +1445,22 @@
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
@@ -1485,22 +1485,22 @@
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
@@ -1525,22 +1525,22 @@
     </row>
     <row r="8" spans="1:6" ht="51" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -1565,22 +1565,22 @@
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
@@ -1605,27 +1605,27 @@
     </row>
     <row r="12" spans="1:6" ht="51" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1661,122 +1661,122 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="51" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="51" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="51" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
@@ -1801,22 +1801,22 @@
     </row>
     <row r="23" spans="1:6" ht="51" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
@@ -1841,22 +1841,22 @@
     </row>
     <row r="25" spans="1:6" ht="51" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
